--- a/Trading/wind/Data/output.xlsx
+++ b/Trading/wind/Data/output.xlsx
@@ -14,84 +14,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>证券简称</t>
-  </si>
-  <si>
-    <t>2015总收入</t>
-  </si>
-  <si>
-    <t>2016总收入</t>
-  </si>
-  <si>
-    <t>2017总收入</t>
-  </si>
-  <si>
-    <t>2018总收入</t>
-  </si>
-  <si>
-    <t>2019总收入</t>
-  </si>
-  <si>
-    <t>2015总收入 yoy</t>
-  </si>
-  <si>
-    <t>2016总收入 yoy</t>
-  </si>
-  <si>
-    <t>2017总收入 yoy</t>
-  </si>
-  <si>
-    <t>2018总收入 yoy</t>
-  </si>
-  <si>
-    <t>2019总收入 yoy</t>
-  </si>
-  <si>
-    <t>2015归母</t>
-  </si>
-  <si>
-    <t>2016归母</t>
-  </si>
-  <si>
-    <t>2017归母</t>
-  </si>
-  <si>
-    <t>2018归母</t>
-  </si>
-  <si>
-    <t>2019归母</t>
-  </si>
-  <si>
-    <t>2015归母 yoy</t>
-  </si>
-  <si>
-    <t>2016归母 yoy</t>
-  </si>
-  <si>
-    <t>2017归母 yoy</t>
-  </si>
-  <si>
-    <t>2018归母 yoy</t>
-  </si>
-  <si>
-    <t>2019归母 yoy</t>
-  </si>
-  <si>
-    <t>2015归母扣非 yoy</t>
-  </si>
-  <si>
-    <t>2016归母扣非 yoy</t>
-  </si>
-  <si>
-    <t>2017归母扣非 yoy</t>
-  </si>
-  <si>
-    <t>2018归母扣非 yoy</t>
-  </si>
-  <si>
-    <t>2019归母扣非 yoy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+  <si>
+    <t>Security Name</t>
+  </si>
+  <si>
+    <t>2015Total Revenue</t>
+  </si>
+  <si>
+    <t>2016Total Revenue</t>
+  </si>
+  <si>
+    <t>2017Total Revenue</t>
+  </si>
+  <si>
+    <t>2018Total Revenue</t>
+  </si>
+  <si>
+    <t>2019Total Revenue</t>
+  </si>
+  <si>
+    <t>2015Total Revenue yoy</t>
+  </si>
+  <si>
+    <t>2016Total Revenue yoy</t>
+  </si>
+  <si>
+    <t>2017Total Revenue yoy</t>
+  </si>
+  <si>
+    <t>2018Total Revenue yoy</t>
+  </si>
+  <si>
+    <t>2019Total Revenue yoy</t>
+  </si>
+  <si>
+    <t>2015Shareholder Profit</t>
+  </si>
+  <si>
+    <t>2016Shareholder Profit</t>
+  </si>
+  <si>
+    <t>2017Shareholder Profit</t>
+  </si>
+  <si>
+    <t>2018Shareholder Profit</t>
+  </si>
+  <si>
+    <t>2019Shareholder Profit</t>
+  </si>
+  <si>
+    <t>2015Shareholder Profit yoy</t>
+  </si>
+  <si>
+    <t>2016Shareholder Profit yoy</t>
+  </si>
+  <si>
+    <t>2017Shareholder Profit yoy</t>
+  </si>
+  <si>
+    <t>2018Shareholder Profit yoy</t>
+  </si>
+  <si>
+    <t>2019Shareholder Profit yoy</t>
+  </si>
+  <si>
+    <t>2015Shareholder Profit Deduct yoy</t>
+  </si>
+  <si>
+    <t>2016Shareholder Profit Deduct yoy</t>
+  </si>
+  <si>
+    <t>2017Shareholder Profit Deduct yoy</t>
+  </si>
+  <si>
+    <t>2018Shareholder Profit Deduct yoy</t>
+  </si>
+  <si>
+    <t>2019Shareholder Profit Deduct yoy</t>
   </si>
   <si>
     <t>600031.SH</t>
@@ -110,6 +110,231 @@
   </si>
   <si>
     <t>恒立液压</t>
+  </si>
+  <si>
+    <t>23,366,869,000.00</t>
+  </si>
+  <si>
+    <t>479,151,198.71</t>
+  </si>
+  <si>
+    <t>1,087,588,385.56</t>
+  </si>
+  <si>
+    <t>23,280,072,000.00</t>
+  </si>
+  <si>
+    <t>694,657,422.46</t>
+  </si>
+  <si>
+    <t>1,370,100,268.36</t>
+  </si>
+  <si>
+    <t>38,335,087,000.00</t>
+  </si>
+  <si>
+    <t>1,139,183,825.65</t>
+  </si>
+  <si>
+    <t>2,795,211,617.28</t>
+  </si>
+  <si>
+    <t>55,821,504,000.00</t>
+  </si>
+  <si>
+    <t>1,707,538,304.04</t>
+  </si>
+  <si>
+    <t>4,210,975,401.85</t>
+  </si>
+  <si>
+    <t>75,665,760,000.00</t>
+  </si>
+  <si>
+    <t>2,389,355,320.86</t>
+  </si>
+  <si>
+    <t>5,414,021,975.86</t>
+  </si>
+  <si>
+    <t>-22.98</t>
+  </si>
+  <si>
+    <t>28.53</t>
+  </si>
+  <si>
+    <t>-0.67</t>
+  </si>
+  <si>
+    <t>-1.24</t>
+  </si>
+  <si>
+    <t>44.56</t>
+  </si>
+  <si>
+    <t>25.24</t>
+  </si>
+  <si>
+    <t>65.03</t>
+  </si>
+  <si>
+    <t>63.67</t>
+  </si>
+  <si>
+    <t>104.28</t>
+  </si>
+  <si>
+    <t>45.83</t>
+  </si>
+  <si>
+    <t>50.56</t>
+  </si>
+  <si>
+    <t>51.02</t>
+  </si>
+  <si>
+    <t>35.68</t>
+  </si>
+  <si>
+    <t>40.11</t>
+  </si>
+  <si>
+    <t>28.66</t>
+  </si>
+  <si>
+    <t>138,586,000.00</t>
+  </si>
+  <si>
+    <t>125,734,226.29</t>
+  </si>
+  <si>
+    <t>63,513,867.98</t>
+  </si>
+  <si>
+    <t>203,457,000.00</t>
+  </si>
+  <si>
+    <t>174,782,314.90</t>
+  </si>
+  <si>
+    <t>70,351,830.20</t>
+  </si>
+  <si>
+    <t>2,092,253,000.00</t>
+  </si>
+  <si>
+    <t>283,145,540.65</t>
+  </si>
+  <si>
+    <t>381,940,442.28</t>
+  </si>
+  <si>
+    <t>6,116,288,000.00</t>
+  </si>
+  <si>
+    <t>480,468,471.67</t>
+  </si>
+  <si>
+    <t>836,643,461.06</t>
+  </si>
+  <si>
+    <t>11,206,662,000.00</t>
+  </si>
+  <si>
+    <t>694,081,236.94</t>
+  </si>
+  <si>
+    <t>1,296,199,825.84</t>
+  </si>
+  <si>
+    <t>-80.46</t>
+  </si>
+  <si>
+    <t>36.72</t>
+  </si>
+  <si>
+    <t>-30.89</t>
+  </si>
+  <si>
+    <t>4,001.13</t>
+  </si>
+  <si>
+    <t>39.01</t>
+  </si>
+  <si>
+    <t>10.77</t>
+  </si>
+  <si>
+    <t>928.35</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>442.90</t>
+  </si>
+  <si>
+    <t>192.33</t>
+  </si>
+  <si>
+    <t>69.69</t>
+  </si>
+  <si>
+    <t>119.05</t>
+  </si>
+  <si>
+    <t>83.23</t>
+  </si>
+  <si>
+    <t>44.46</t>
+  </si>
+  <si>
+    <t>54.93</t>
+  </si>
+  <si>
+    <t>-120.39</t>
+  </si>
+  <si>
+    <t>23.33</t>
+  </si>
+  <si>
+    <t>-332.34</t>
+  </si>
+  <si>
+    <t>1,035.89</t>
+  </si>
+  <si>
+    <t>48.67</t>
+  </si>
+  <si>
+    <t>16.65</t>
+  </si>
+  <si>
+    <t>-13.02</t>
+  </si>
+  <si>
+    <t>63.09</t>
+  </si>
+  <si>
+    <t>881.73</t>
+  </si>
+  <si>
+    <t>301.13</t>
+  </si>
+  <si>
+    <t>57.87</t>
+  </si>
+  <si>
+    <t>115.17</t>
+  </si>
+  <si>
+    <t>55.78</t>
+  </si>
+  <si>
+    <t>53.90</t>
+  </si>
+  <si>
+    <t>63.74</t>
   </si>
 </sst>
 </file>
@@ -560,80 +785,80 @@
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2">
-        <v>23366869000</v>
-      </c>
-      <c r="D2">
-        <v>23280072000</v>
-      </c>
-      <c r="E2">
-        <v>38335087000</v>
-      </c>
-      <c r="F2">
-        <v>55821504000</v>
-      </c>
-      <c r="G2">
-        <v>75665760000</v>
-      </c>
-      <c r="H2">
-        <v>-22.9804</v>
-      </c>
-      <c r="I2">
-        <v>-1.2363</v>
-      </c>
-      <c r="J2">
-        <v>65.0261</v>
-      </c>
-      <c r="K2">
-        <v>45.8255</v>
-      </c>
-      <c r="L2">
-        <v>35.6783</v>
-      </c>
-      <c r="M2">
-        <v>138586000</v>
-      </c>
-      <c r="N2">
-        <v>203457000</v>
-      </c>
-      <c r="O2">
-        <v>2092253000</v>
-      </c>
-      <c r="P2">
-        <v>6116288000</v>
-      </c>
-      <c r="Q2">
-        <v>11206662000</v>
-      </c>
-      <c r="R2">
-        <v>-80.459</v>
-      </c>
-      <c r="S2">
-        <v>4001.1288</v>
-      </c>
-      <c r="T2">
-        <v>928.3514</v>
-      </c>
-      <c r="U2">
-        <v>192.3302</v>
-      </c>
-      <c r="V2">
-        <v>83.2265</v>
-      </c>
-      <c r="W2">
-        <v>-120.3875</v>
-      </c>
-      <c r="X2">
-        <v>1035.8944</v>
-      </c>
-      <c r="Y2">
-        <v>-13.0227</v>
-      </c>
-      <c r="Z2">
-        <v>301.127</v>
-      </c>
-      <c r="AA2">
-        <v>55.7776</v>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -643,80 +868,80 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3">
-        <v>479151198.71</v>
-      </c>
-      <c r="D3">
-        <v>694657422.46</v>
-      </c>
-      <c r="E3">
-        <v>1139183825.65</v>
-      </c>
-      <c r="F3">
-        <v>1707538304.04</v>
-      </c>
-      <c r="G3">
-        <v>2389355320.86</v>
-      </c>
-      <c r="H3">
-        <v>28.5331</v>
-      </c>
-      <c r="I3">
-        <v>44.5596</v>
-      </c>
-      <c r="J3">
-        <v>63.6655</v>
-      </c>
-      <c r="K3">
-        <v>50.5606</v>
-      </c>
-      <c r="L3">
-        <v>40.1143</v>
-      </c>
-      <c r="M3">
-        <v>125734226.29</v>
-      </c>
-      <c r="N3">
-        <v>174782314.9</v>
-      </c>
-      <c r="O3">
-        <v>283145540.65</v>
-      </c>
-      <c r="P3">
-        <v>480468471.67</v>
-      </c>
-      <c r="Q3">
-        <v>694081236.9400001</v>
-      </c>
-      <c r="R3">
-        <v>36.7205</v>
-      </c>
-      <c r="S3">
-        <v>39.0093</v>
-      </c>
-      <c r="T3">
-        <v>61.999</v>
-      </c>
-      <c r="U3">
-        <v>69.6896</v>
-      </c>
-      <c r="V3">
-        <v>44.4593</v>
-      </c>
-      <c r="W3">
-        <v>23.3297</v>
-      </c>
-      <c r="X3">
-        <v>48.6698</v>
-      </c>
-      <c r="Y3">
-        <v>63.0924</v>
-      </c>
-      <c r="Z3">
-        <v>57.8748</v>
-      </c>
-      <c r="AA3">
-        <v>53.9041</v>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" t="s">
+        <v>87</v>
+      </c>
+      <c r="V3" t="s">
+        <v>90</v>
+      </c>
+      <c r="W3" t="s">
+        <v>93</v>
+      </c>
+      <c r="X3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -726,80 +951,80 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4">
-        <v>1087588385.56</v>
-      </c>
-      <c r="D4">
-        <v>1370100268.36</v>
-      </c>
-      <c r="E4">
-        <v>2795211617.28</v>
-      </c>
-      <c r="F4">
-        <v>4210975401.85</v>
-      </c>
-      <c r="G4">
-        <v>5414021975.86</v>
-      </c>
-      <c r="H4">
-        <v>-0.6664</v>
-      </c>
-      <c r="I4">
-        <v>25.2417</v>
-      </c>
-      <c r="J4">
-        <v>104.285</v>
-      </c>
-      <c r="K4">
-        <v>51.0226</v>
-      </c>
-      <c r="L4">
-        <v>28.6575</v>
-      </c>
-      <c r="M4">
-        <v>63513867.98</v>
-      </c>
-      <c r="N4">
-        <v>70351830.2</v>
-      </c>
-      <c r="O4">
-        <v>381940442.28</v>
-      </c>
-      <c r="P4">
-        <v>836643461.0599999</v>
-      </c>
-      <c r="Q4">
-        <v>1296199825.84</v>
-      </c>
-      <c r="R4">
-        <v>-30.8935</v>
-      </c>
-      <c r="S4">
-        <v>10.7661</v>
-      </c>
-      <c r="T4">
-        <v>442.9005</v>
-      </c>
-      <c r="U4">
-        <v>119.0508</v>
-      </c>
-      <c r="V4">
-        <v>54.9286</v>
-      </c>
-      <c r="W4">
-        <v>-332.3425</v>
-      </c>
-      <c r="X4">
-        <v>16.6543</v>
-      </c>
-      <c r="Y4">
-        <v>881.7324</v>
-      </c>
-      <c r="Z4">
-        <v>115.1664</v>
-      </c>
-      <c r="AA4">
-        <v>63.7363</v>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
